--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_10.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_10.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yasuhiro Yoshida</t>
+          <t>Kazuya Nakamura</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
